--- a/print_best_result_excel/case2/tested_state_ddqn_optimal_design_case2_0612.xlsx
+++ b/print_best_result_excel/case2/tested_state_ddqn_optimal_design_case2_0612.xlsx
@@ -548,26 +548,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6-B-10</t>
+          <t>0-5-B-30</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>574.9812330517155</v>
+        <v>540.4445128472948</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01040051700817868</v>
+        <v>0.01040093512635075</v>
       </c>
       <c r="F5" t="n">
-        <v>28.32158626456867</v>
+        <v>28.44936141595725</v>
       </c>
       <c r="G5" t="n">
-        <v>28.67841373543133</v>
+        <v>28.55063858404275</v>
       </c>
       <c r="H5" t="n">
         <v>44.7</v>
@@ -579,26 +579,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6-B-30</t>
+          <t>1-1-B-10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1397.80200393326</v>
+        <v>265.8661800335707</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01028750208543748</v>
+        <v>0.01040068349067032</v>
       </c>
       <c r="F6" t="n">
-        <v>25.68636255116295</v>
+        <v>28.64307256719739</v>
       </c>
       <c r="G6" t="n">
-        <v>31.31363744883705</v>
+        <v>28.35692743280261</v>
       </c>
       <c r="H6" t="n">
         <v>44.7</v>
@@ -610,26 +610,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0-A-30</t>
+          <t>6-B-10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>554.3337380516659</v>
+        <v>574.9812330517155</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02181401685883957</v>
+        <v>0.01040051700817868</v>
       </c>
       <c r="F7" t="n">
-        <v>25.14127541625282</v>
+        <v>28.32158626456867</v>
       </c>
       <c r="G7" t="n">
-        <v>24.85872458374718</v>
+        <v>28.67841373543133</v>
       </c>
       <c r="H7" t="n">
         <v>44.7</v>
@@ -641,26 +641,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1-B-10</t>
+          <t>6-B-30</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>252.5911546768903</v>
+        <v>1397.80200393326</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01040053010675579</v>
+        <v>0.01028750208543748</v>
       </c>
       <c r="F8" t="n">
-        <v>28.32417847076289</v>
+        <v>25.68636255116295</v>
       </c>
       <c r="G8" t="n">
-        <v>28.67582152923711</v>
+        <v>31.31363744883705</v>
       </c>
       <c r="H8" t="n">
         <v>44.7</v>
@@ -672,26 +672,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1-B-30</t>
+          <t>1-1-B-30</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>618.1563766525799</v>
+        <v>629.4618200976608</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01039763501425023</v>
+        <v>0.01040004538833375</v>
       </c>
       <c r="F9" t="n">
-        <v>28.98434763993118</v>
+        <v>28.24522944955701</v>
       </c>
       <c r="G9" t="n">
-        <v>28.01565236006882</v>
+        <v>28.75477055044299</v>
       </c>
       <c r="H9" t="n">
         <v>44.7</v>
@@ -703,57 +703,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0-A-10</t>
+          <t>0-5-B-10</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>204.8748268298053</v>
+        <v>226.1355387227386</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01636952750271068</v>
+        <v>0.01039213487073437</v>
       </c>
       <c r="F10" t="n">
-        <v>23.99648867597231</v>
+        <v>29.28313821962543</v>
       </c>
       <c r="G10" t="n">
-        <v>24.00351132402769</v>
+        <v>27.71686178037457</v>
       </c>
       <c r="H10" t="n">
         <v>44.7</v>
       </c>
       <c r="I10" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6-A-30</t>
+          <t>0-A-30</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1939.784547136771</v>
+        <v>554.3337380516659</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0214499434848545</v>
+        <v>0.02181401685883957</v>
       </c>
       <c r="F11" t="n">
-        <v>21.2069996563262</v>
+        <v>25.14127541625282</v>
       </c>
       <c r="G11" t="n">
-        <v>28.7930003436738</v>
+        <v>24.85872458374718</v>
       </c>
       <c r="H11" t="n">
         <v>44.7</v>
@@ -765,26 +765,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6-A-10</t>
+          <t>1-B-10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>676.2051515752593</v>
+        <v>252.5911546768903</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0218140405728414</v>
+        <v>0.01040053010675579</v>
       </c>
       <c r="F12" t="n">
-        <v>24.93328470993881</v>
+        <v>28.32417847076289</v>
       </c>
       <c r="G12" t="n">
-        <v>25.06671529006119</v>
+        <v>28.67582152923711</v>
       </c>
       <c r="H12" t="n">
         <v>44.7</v>
@@ -796,181 +796,181 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5-A-10</t>
+          <t>1-B-30</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>246.1500116335106</v>
+        <v>618.1563766525799</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01635794233131148</v>
+        <v>0.01039763501425023</v>
       </c>
       <c r="F13" t="n">
-        <v>23.23274070817572</v>
+        <v>28.98434763993118</v>
       </c>
       <c r="G13" t="n">
-        <v>24.76725929182428</v>
+        <v>28.01565236006882</v>
       </c>
       <c r="H13" t="n">
         <v>44.7</v>
       </c>
       <c r="I13" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1-A-30</t>
+          <t>0-A-10</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>788.1410278244895</v>
+        <v>204.8748268298053</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02180704411873522</v>
+        <v>0.01636952750271068</v>
       </c>
       <c r="F14" t="n">
-        <v>25.55976428602889</v>
+        <v>23.99648867597231</v>
       </c>
       <c r="G14" t="n">
-        <v>24.44023571397111</v>
+        <v>24.00351132402769</v>
       </c>
       <c r="H14" t="n">
         <v>44.7</v>
       </c>
       <c r="I14" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3-A-30</t>
+          <t>0-5-A-10</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1229.495302252279</v>
+        <v>246.1500116335106</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02171969306641328</v>
+        <v>0.01635794233131148</v>
       </c>
       <c r="F15" t="n">
-        <v>23.06239845600149</v>
+        <v>23.23274070817572</v>
       </c>
       <c r="G15" t="n">
-        <v>26.93760154399851</v>
+        <v>24.76725929182428</v>
       </c>
       <c r="H15" t="n">
         <v>44.7</v>
       </c>
       <c r="I15" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3-A-10</t>
+          <t>1-1-A-30</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>470.6137286544841</v>
+        <v>788.1410278244895</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02091347724890991</v>
+        <v>0.02180704411873522</v>
       </c>
       <c r="F16" t="n">
-        <v>19.07359350712132</v>
+        <v>25.55976428602889</v>
       </c>
       <c r="G16" t="n">
-        <v>30.92640649287868</v>
+        <v>24.44023571397111</v>
       </c>
       <c r="H16" t="n">
         <v>44.7</v>
       </c>
       <c r="I16" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1-A-10</t>
+          <t>6-A-30</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>299.0470734796504</v>
+        <v>1939.784547136771</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01625733309194432</v>
+        <v>0.0214499434848545</v>
       </c>
       <c r="F17" t="n">
-        <v>21.61366910468999</v>
+        <v>21.2069996563262</v>
       </c>
       <c r="G17" t="n">
-        <v>26.38633089531001</v>
+        <v>28.7930003436738</v>
       </c>
       <c r="H17" t="n">
         <v>44.7</v>
       </c>
       <c r="I17" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5-A-30</t>
+          <t>6-A-10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>662.7121943489809</v>
+        <v>676.2051515752593</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02181430314284597</v>
+        <v>0.0218140405728414</v>
       </c>
       <c r="F18" t="n">
-        <v>25.03017601428822</v>
+        <v>24.93328470993881</v>
       </c>
       <c r="G18" t="n">
-        <v>24.96982398571178</v>
+        <v>25.06671529006119</v>
       </c>
       <c r="H18" t="n">
         <v>44.7</v>
@@ -982,57 +982,57 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5-A-30</t>
+          <t>1-1-A-10</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1756.419777380785</v>
+        <v>299.0470734796504</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02096425006111087</v>
+        <v>0.01625733309194432</v>
       </c>
       <c r="F19" t="n">
-        <v>19.23915466694011</v>
+        <v>21.61366910468999</v>
       </c>
       <c r="G19" t="n">
-        <v>30.76084533305989</v>
+        <v>26.38633089531001</v>
       </c>
       <c r="H19" t="n">
         <v>44.7</v>
       </c>
       <c r="I19" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5-A-10</t>
+          <t>0-5-A-30</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>590.0205577428241</v>
+        <v>662.7121943489809</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.021786160170796</v>
+        <v>0.02181430314284597</v>
       </c>
       <c r="F20" t="n">
-        <v>26.06991956570431</v>
+        <v>25.03017601428822</v>
       </c>
       <c r="G20" t="n">
-        <v>23.93008043429569</v>
+        <v>24.96982398571178</v>
       </c>
       <c r="H20" t="n">
         <v>44.7</v>
@@ -1044,26 +1044,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3-B-10</t>
+          <t>3-A-30</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>379.5976048378929</v>
+        <v>1229.495302252279</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01038956299063688</v>
+        <v>0.02171969306641328</v>
       </c>
       <c r="F21" t="n">
-        <v>27.60289294612907</v>
+        <v>23.06239845600149</v>
       </c>
       <c r="G21" t="n">
-        <v>29.39710705387093</v>
+        <v>26.93760154399851</v>
       </c>
       <c r="H21" t="n">
         <v>44.7</v>
@@ -1075,57 +1075,57 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5-B-30</t>
+          <t>3-A-10</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4445128472948</v>
+        <v>470.6137286544841</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01040093512635075</v>
+        <v>0.02091347724890991</v>
       </c>
       <c r="F22" t="n">
-        <v>28.44936141595725</v>
+        <v>19.07359350712132</v>
       </c>
       <c r="G22" t="n">
-        <v>28.55063858404275</v>
+        <v>30.92640649287868</v>
       </c>
       <c r="H22" t="n">
         <v>44.7</v>
       </c>
       <c r="I22" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1-B-10</t>
+          <t>5-A-30</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>265.8661800335707</v>
+        <v>1756.419777380785</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01040068349067032</v>
+        <v>0.02096425006111087</v>
       </c>
       <c r="F23" t="n">
-        <v>28.64307256719739</v>
+        <v>19.23915466694011</v>
       </c>
       <c r="G23" t="n">
-        <v>28.35692743280261</v>
+        <v>30.76084533305989</v>
       </c>
       <c r="H23" t="n">
         <v>44.7</v>
@@ -1137,26 +1137,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1-B-30</t>
+          <t>5-A-10</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>629.4618200976608</v>
+        <v>590.0205577428241</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01040004538833375</v>
+        <v>0.021786160170796</v>
       </c>
       <c r="F24" t="n">
-        <v>28.24522944955701</v>
+        <v>26.06991956570431</v>
       </c>
       <c r="G24" t="n">
-        <v>28.75477055044299</v>
+        <v>23.93008043429569</v>
       </c>
       <c r="H24" t="n">
         <v>44.7</v>
@@ -1168,26 +1168,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5-B-10</t>
+          <t>3-B-10</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>226.1355387227386</v>
+        <v>379.5976048378929</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01039213487073437</v>
+        <v>0.01038956299063688</v>
       </c>
       <c r="F25" t="n">
-        <v>29.28313821962543</v>
+        <v>27.60289294612907</v>
       </c>
       <c r="G25" t="n">
-        <v>27.71686178037457</v>
+        <v>29.39710705387093</v>
       </c>
       <c r="H25" t="n">
         <v>44.7</v>
